--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R4b9cb8e94fd8463b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rcdc04014c2a7471a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46036.870243032405</x:v>
+        <x:v>46036.97064170139</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46066.870243032405</x:v>
+        <x:v>46066.97064170139</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rcdc04014c2a7471a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R359b87a3564c4c16"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46036.97064170139</x:v>
+        <x:v>46038.74828215278</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46066.97064170139</x:v>
+        <x:v>46068.74828215278</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R359b87a3564c4c16"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd02a80d2499c421e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46038.74828215278</x:v>
+        <x:v>46039.69180547454</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46068.74828215278</x:v>
+        <x:v>46069.69180547454</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd02a80d2499c421e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R677c1f004f7e4122"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46039.69180547454</x:v>
+        <x:v>46039.73889840278</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46069.69180547454</x:v>
+        <x:v>46069.73889840278</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R677c1f004f7e4122"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R0ce8756528ee4fb7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46039.73889840278</x:v>
+        <x:v>46039.75477856481</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46069.73889840278</x:v>
+        <x:v>46069.75477856481</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R0ce8756528ee4fb7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rf1ddbe1e30634a13"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46039.75477856481</x:v>
+        <x:v>46039.785802280094</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46069.75477856481</x:v>
+        <x:v>46069.785802280094</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rf1ddbe1e30634a13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R7913b0f4c7c8465b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46039.785802280094</x:v>
+        <x:v>46040.34884038194</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46069.785802280094</x:v>
+        <x:v>46070.34884038194</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R7913b0f4c7c8465b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rf10ac25e2dc04494"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46040.34884038194</x:v>
+        <x:v>46040.94270943287</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46070.34884038194</x:v>
+        <x:v>46070.94270943287</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rf10ac25e2dc04494"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R5d4411fc0720478e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46040.94270943287</x:v>
+        <x:v>46040.985967175926</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46070.94270943287</x:v>
+        <x:v>46070.985967175926</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R5d4411fc0720478e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R20edd0747f954e13"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46040.985967175926</x:v>
+        <x:v>46060.67813731481</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46070.985967175926</x:v>
+        <x:v>46090.67813731481</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R20edd0747f954e13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R5cbc1f62dc6f43ef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,46 +30,46 @@
       <x:b/>
       <x:sz val="24"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46060.67813731481</x:v>
+        <x:v>46060.721093726854</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46090.67813731481</x:v>
+        <x:v>46090.721093726854</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R5cbc1f62dc6f43ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd9ffa9e2e9a4486f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,46 +30,46 @@
       <x:b/>
       <x:sz val="24"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46060.721093726854</x:v>
+        <x:v>46060.77104564815</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46090.721093726854</x:v>
+        <x:v>46090.77104564815</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/019_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd9ffa9e2e9a4486f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Ra678cf3e8154411c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46060.77104564815</x:v>
+        <x:v>46062.18446457176</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46090.77104564815</x:v>
+        <x:v>46092.18446457176</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
